--- a/InputData/geoeng/ERWD/Enhanced Rock Weathering Data.xlsx
+++ b/InputData/geoeng/ERWD/Enhanced Rock Weathering Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\geoeng\ERWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EEFD6F9-AC62-4988-8549-5C72F21AA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AAF143-D02D-4BA9-A61C-1E4CE8806B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="ERWD-capex" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -62,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Sources:</t>
   </si>
@@ -167,6 +166,18 @@
   </si>
   <si>
     <t>ERWD Enhanced Rock Weathering Amortized CapEx and OM</t>
+  </si>
+  <si>
+    <t>Because enhanced rock weathering involves the crushing of rock and application</t>
+  </si>
+  <si>
+    <t>on fields, which are available technologies today, we assume the full potential</t>
+  </si>
+  <si>
+    <t>could be realized as soon as 2030. However, it is worth noting that would require</t>
+  </si>
+  <si>
+    <t>a very large scale-up of capacity and transportation logistics.</t>
   </si>
 </sst>
 </file>
@@ -586,16 +597,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -656,36 +667,56 @@
         <v>25</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>19</v>
+      <c r="A16" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
         <v>0.88711067149387013</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>31</v>
       </c>
-      <c r="B23">
+      <c r="B27">
         <v>947817</v>
       </c>
     </row>
@@ -1120,7 +1151,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="6">
-        <f>'Fuhrman data'!B4*About!B23</f>
+        <f>'Fuhrman data'!B4*About!B27</f>
         <v>625559.22</v>
       </c>
       <c r="C2" s="6">
@@ -2250,7 +2281,7 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <f>('Fuhrman data'!B1+'Fuhrman data'!B2)*About!A21</f>
+        <f>('Fuhrman data'!B1+'Fuhrman data'!B2)*About!A25</f>
         <v>255.4878733902346</v>
       </c>
       <c r="C2">
@@ -2370,7 +2401,7 @@
         <v>137.14730981295241</v>
       </c>
       <c r="AF2">
-        <f>'Fuhrman data'!B1*About!A21</f>
+        <f>'Fuhrman data'!B1*About!A25</f>
         <v>133.06660072408053</v>
       </c>
     </row>

--- a/InputData/geoeng/ERWD/Enhanced Rock Weathering Data.xlsx
+++ b/InputData/geoeng/ERWD/Enhanced Rock Weathering Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\geoeng\ERWD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Modeling\EPS\US\eps-us\InputData\geoeng\ERWD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98AAF143-D02D-4BA9-A61C-1E4CE8806B97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B40F312C-E14B-4939-90CF-7849D9236CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32625" yWindow="2040" windowWidth="24900" windowHeight="14490" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Sources:</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>a very large scale-up of capacity and transportation logistics.</t>
+  </si>
+  <si>
+    <t>green hydrogen</t>
+  </si>
+  <si>
+    <t>low carbon hydrogen</t>
   </si>
 </sst>
 </file>
@@ -599,32 +605,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.81640625" customWidth="1"/>
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,87 +638,87 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="5">
         <v>2023</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0.88711067149387013</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -734,13 +740,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="4" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="4" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -748,7 +754,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>29</v>
       </c>
@@ -756,7 +762,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -764,7 +770,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>30</v>
       </c>
@@ -772,10 +778,10 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="7"/>
     </row>
   </sheetData>
@@ -796,15 +802,15 @@
       <selection activeCell="G2" sqref="G2:K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
-    <col min="2" max="21" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="32" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="21" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="32" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -902,7 +908,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1037,18 +1043,18 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF13"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:AF2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="A12:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1281,7 @@
         <v>625559.22</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1373,7 +1379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1863,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2154,6 +2160,202 @@
         <v>0</v>
       </c>
       <c r="AF11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0</v>
+      </c>
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="6">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <v>0</v>
+      </c>
+      <c r="S12" s="6">
+        <v>0</v>
+      </c>
+      <c r="T12" s="6">
+        <v>0</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0</v>
+      </c>
+      <c r="W12" s="6">
+        <v>0</v>
+      </c>
+      <c r="X12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0</v>
+      </c>
+      <c r="S13" s="6">
+        <v>0</v>
+      </c>
+      <c r="T13" s="6">
+        <v>0</v>
+      </c>
+      <c r="U13" s="6">
+        <v>0</v>
+      </c>
+      <c r="V13" s="6">
+        <v>0</v>
+      </c>
+      <c r="W13" s="6">
+        <v>0</v>
+      </c>
+      <c r="X13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="6">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="6">
         <v>0</v>
       </c>
     </row>
@@ -2173,12 +2375,12 @@
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2276,7 +2478,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>4</v>
       </c>
